--- a/biology/Botanique/Épipactis_violacé/Épipactis_violacé.xlsx
+++ b/biology/Botanique/Épipactis_violacé/Épipactis_violacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis purpurata
 L’Épipactis violacé (Epipactis purpurata) ou Épipactis pourpre est une espèce d'orchidée terrestre européenne, appartenant au genre Epipactis Zinn, 1757 et au groupe Epipactis purpurata.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Epipactis sessilifolia Peterm.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin purpuratus (vêtu de pourpre), se référant à la teinte générale de la plante.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plante : haute (30-70 cm) et raide, généralement de teinte gris-violacé, souvent en touffes, à inflorescence allongée et dense.
 Feuilles : souvent assez nombreuses, gris-violacé, ovales à lancéolées, réparties sous l'inflorescence.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De mi-juillet à août (parfois début septembre).
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">0-1 200 m. Chênaies-hêtraies assez sombres et fraîches, sur sols argileux à marneux.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre-Ouest de l'Europe ; en France : large moitié nord-est, assez rare à très rare (parfois localement abondante).
 </t>
@@ -684,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_violac%C3%A9</t>
+          <t>Épipactis_violacé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,9 +726,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, plante protégée régionalement : Centre-Val de Loire, Champagne-Ardenne (uniquement Ardennes et Marne), Île-de-France, Nord-Pas-de-Calais[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, plante protégée régionalement : Centre-Val de Loire, Champagne-Ardenne (uniquement Ardennes et Marne), Île-de-France, Nord-Pas-de-Calais.
 Statut de conservation UICN : Préoccupation mineure (LC).
 </t>
         </is>
